--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C411F172-0AFD-4657-95FA-F0EA5F951B4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CBD048-A0E9-44CC-8E66-D087D7FB08B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>周一</t>
   </si>
@@ -117,7 +117,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">OPPO
+      <t>平安产险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+08-04 18:30
+记得提前完成测试题，打开HR-X-APP</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">OPPO（一面广告投放部门）
 </t>
     </r>
     <r>
@@ -145,21 +172,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>平安产险</t>
+      <t>深信服（一面</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <family val="3"/>
+        <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-08-04 18:30
-记得提前完成测试题，打开HR-X-APP</t>
+      <t>）
+08-05 19:00
+牛客网在线面试</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -265,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,6 +314,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,7 +602,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -617,10 +647,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>23</v>
+      <c r="E2" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CBD048-A0E9-44CC-8E66-D087D7FB08B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD0C28D-6E97-45BD-8DDA-4F314D9F0E92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>周一</t>
   </si>
@@ -144,7 +144,31 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">OPPO（一面广告投放部门）
+      <t>OPPO（一面广告投放部门）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -156,8 +180,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>08-03 19:00
-使用Zoom视频软件</t>
+      <t xml:space="preserve">08-03 19:00
+使用Zoom视频软件
+</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -187,13 +212,68 @@
 08-05 19:00
 牛客网在线面试</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字节跳动（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+08-12 20:00
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外资企业（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+08-09 18:00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +336,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -313,10 +402,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -602,7 +691,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -659,6 +748,12 @@
     <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B397AA-5136-4F31-A7BD-7D03A63C1982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82FD427-DDD0-4E81-BBB2-9DFD179459FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -111,29 +111,6 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>平安产险（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-04 18:30
-记得提前完成测试题，打开HR-X-APP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>深信服（一面</t>
     </r>
     <r>
@@ -174,6 +151,134 @@
     </r>
   </si>
   <si>
+    <t>08.16-08.22</t>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <r>
+      <t>Shopee(一面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 18:15</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">惠择保险（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">08-10 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+深信服（二面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>08-10 19:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -195,68 +300,60 @@
 08-12 20:00
 </t>
     </r>
-  </si>
-  <si>
-    <t>08.16-08.22</t>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <r>
-      <t>Shopee(一面)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平安产险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-08-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+08-04 18:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 18:15</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+记得提前完成测试题，打开HR-X-APP</t>
+    </r>
   </si>
   <si>
     <r>
@@ -269,12 +366,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">惠择保险（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>佳兆业（一面）</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -282,54 +377,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">08-10 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
-深信服（二面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>08-10 19:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+08-13 11:00
+现场面试</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +505,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -483,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,6 +587,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -841,38 +921,41 @@
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>17</v>
+      <c r="F3" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -930,19 +1013,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -950,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82FD427-DDD0-4E81-BBB2-9DFD179459FB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -111,6 +105,57 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
+      <t>平安产险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-04 18:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+记得提前完成测试题，打开HR-X-APP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>深信服（一面</t>
     </r>
     <r>
@@ -130,6 +175,127 @@
   </si>
   <si>
     <r>
+      <t>外资企业（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-09 18:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">惠择保险（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">08-10 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+深信服（二面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08-10 19:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Shopee(一面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 18:15</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="10"/>
@@ -137,7 +303,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>外资企业（一面）</t>
+      <t>字节跳动（一面）</t>
     </r>
     <r>
       <rPr>
@@ -147,248 +313,86 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-08-09 18:00</t>
-    </r>
-  </si>
-  <si>
-    <t>08.16-08.22</t>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <r>
-      <t>Shopee(一面)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 18:15</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
+08-12 20:00
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">店匠科技（一面）
+08-13 10:30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>现场面试</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">惠择保险（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+佳兆业（一面）</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">08-10 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-深信服（二面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>08-10 19:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字节跳动（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-12 20:00
-</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平安产险（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-04 18:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-记得提前完成测试题，打开HR-X-APP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>佳兆业（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-08-13 11:00
+08-13 14:00
 现场面试</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.16-08.22</t>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,11 +423,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -433,6 +436,186 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
@@ -440,61 +623,10 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -502,27 +634,29 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,8 +675,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -550,14 +870,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,37 +1136,86 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -865,21 +1473,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -904,7 +1512,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -914,52 +1522,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="11" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -969,18 +1576,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2A6BBB2E-53BC-4032-96CC-DAC95063AF0C}</x14:id>
+          <x14:id>{4fa1049b-ec9d-4e0c-abbc-469a7b5bb5ff}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2A6BBB2E-53BC-4032-96CC-DAC95063AF0C}">
+          <x14:cfRule type="dataBar" id="{4fa1049b-ec9d-4e0c-abbc-469a7b5bb5ff}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -999,53 +1607,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E4901-9E1F-4E6A-BB73-F43EA221AA08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="-30828" yWindow="-1596" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -258,46 +264,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Shopee(一面)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 18:15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
@@ -318,9 +284,36 @@
     </r>
   </si>
   <si>
+    <t>08.16-08.22</t>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">店匠科技（一面）
-08-13 10:30
+08-13 10:00
 </t>
     </r>
     <r>
@@ -353,46 +346,66 @@
 08-13 14:00
 现场面试</t>
     </r>
-  </si>
-  <si>
-    <t>08.16-08.22</t>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">卫宁健康（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08-11 14:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Shopee(一面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-11 18:15</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -443,14 +456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -466,153 +471,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,9 +484,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -635,28 +502,43 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -675,194 +557,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -870,249 +566,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1145,77 +602,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1473,21 +887,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +926,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1522,7 +936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1532,11 +946,11 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1546,27 +960,28 @@
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1576,19 +991,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4fa1049b-ec9d-4e0c-abbc-469a7b5bb5ff}</x14:id>
+          <x14:id>{4FA1049B-EC9D-4E0C-ABBC-469A7B5BB5FF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4fa1049b-ec9d-4e0c-abbc-469a7b5bb5ff}">
+          <x14:cfRule type="dataBar" id="{4FA1049B-EC9D-4E0C-ABBC-469A7B5BB5FF}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1607,54 +1021,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8E4901-9E1F-4E6A-BB73-F43EA221AA08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-1596" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>日期</t>
   </si>
@@ -181,6 +175,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>外资企业（一面）</t>
     </r>
     <r>
@@ -206,6 +207,21 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">惠择保险（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">08-10 14:00
+</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="9"/>
@@ -213,19 +229,37 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">惠择保险（一面）
+      <t xml:space="preserve">
+深信服（二面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">08-10 14:00
-</t>
+      <t>08-10 19:00</t>
     </r>
     <r>
       <rPr>
@@ -236,7 +270,19 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-深信服（二面）
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">卫宁健康（一面）
 </t>
     </r>
     <r>
@@ -246,7 +292,18 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>08-10 19:00</t>
+      <t>08-11 14:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
     <r>
       <rPr>
@@ -257,7 +314,17 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+Shopee(一面)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-11 18:15</t>
     </r>
   </si>
   <si>
@@ -284,34 +351,14 @@
     </r>
   </si>
   <si>
-    <t>08.16-08.22</t>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">店匠科技（一面）
 08-13 10:00
 </t>
@@ -346,66 +393,46 @@
 08-13 14:00
 现场面试</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">卫宁健康（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>08-11 14:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-Shopee(一面)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-11 18:15</t>
-    </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.16-08.22</t>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,29 +476,174 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -484,19 +656,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
@@ -505,21 +664,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -527,18 +685,15 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,8 +712,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -566,14 +907,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -602,34 +1182,74 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -887,21 +1507,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -936,7 +1556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -946,11 +1566,11 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -960,28 +1580,27 @@
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="F3" s="12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:1">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -991,18 +1610,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FA1049B-EC9D-4E0C-ABBC-469A7B5BB5FF}</x14:id>
+          <x14:id>{8aac0050-bc8c-47fc-933d-10d2310eecc2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FA1049B-EC9D-4E0C-ABBC-469A7B5BB5FF}">
+          <x14:cfRule type="dataBar" id="{8aac0050-bc8c-47fc-933d-10d2310eecc2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1021,53 +1641,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB2AAC-C342-4BEA-BF0E-40959AEF8A01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日期</t>
   </si>
@@ -351,6 +357,33 @@
     </r>
   </si>
   <si>
+    <t>08.16-08.22</t>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -369,7 +402,42 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>现场面试</t>
+      <t>深圳市南山区高新南区科苑南路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3176</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>号彩讯科创中心</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">层
+</t>
     </r>
     <r>
       <rPr>
@@ -391,48 +459,58 @@
       </rPr>
       <t xml:space="preserve">
 08-13 14:00
-现场面试</t>
-    </r>
-  </si>
-  <si>
-    <t>08.16-08.22</t>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
+深圳南山区飞亚达科技大厦（科技南十二路）整层</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>景顺（一面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+08-13 17:00
+深圳市福田区中心四路1号嘉里建设广场第一座21层</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,210 +568,79 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -712,194 +659,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -907,249 +668,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1188,68 +710,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1507,21 +986,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1025,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1556,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1570,7 +1049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1586,21 +1065,22 @@
       <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1610,19 +1090,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8aac0050-bc8c-47fc-933d-10d2310eecc2}</x14:id>
+          <x14:id>{8AAC0050-BC8C-47FC-933D-10D2310EECC2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8aac0050-bc8c-47fc-933d-10d2310eecc2}">
+          <x14:cfRule type="dataBar" id="{8AAC0050-BC8C-47FC-933D-10D2310EECC2}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1641,54 +1120,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB2AAC-C342-4BEA-BF0E-40959AEF8A01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>日期</t>
   </si>
@@ -213,6 +207,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">惠择保险（一面）
 </t>
     </r>
@@ -357,33 +358,19 @@
     </r>
   </si>
   <si>
-    <t>08.16-08.22</t>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
+    <r>
+      <t xml:space="preserve">店匠科技（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08-13 10:00</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -392,8 +379,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">店匠科技（一面）
-08-13 10:00
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -402,41 +388,7 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>深圳市南山区高新南区科苑南路</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3176</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>号彩讯科创中心</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">层
+      <t xml:space="preserve">深圳市南山区高新南区科苑南路3176号彩讯科创中心30层
 </t>
     </r>
     <r>
@@ -459,26 +411,7 @@
       </rPr>
       <t xml:space="preserve">
 08-13 14:00
-深圳南山区飞亚达科技大厦（科技南十二路）整层</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8001</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
+深圳南山区飞亚达科技大厦（科技南十二路）整层8001
 </t>
     </r>
     <r>
@@ -487,7 +420,6 @@
         <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>景顺（一面</t>
@@ -503,14 +435,60 @@
 08-13 17:00
 深圳市福田区中心四路1号嘉里建设广场第一座21层</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>08.16-08.22</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">复临科技（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-16 19:00</t>
+    </r>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,12 +544,164 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -602,6 +732,7 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -609,38 +740,16 @@
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +768,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -668,10 +963,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -705,30 +1239,73 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -986,21 +1563,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1602,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1035,7 +1612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1059,28 +1636,30 @@
       <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>29</v>
+      <c r="F3" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1090,18 +1669,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8AAC0050-BC8C-47FC-933D-10D2310EECC2}</x14:id>
+          <x14:id>{e16ad21c-3b9a-4a21-9187-a1902a506fa0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8AAC0050-BC8C-47FC-933D-10D2310EECC2}">
+          <x14:cfRule type="dataBar" id="{e16ad21c-3b9a-4a21-9187-a1902a506fa0}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1120,53 +1700,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -432,7 +432,7 @@
         <charset val="134"/>
       </rPr>
       <t>）
-08-13 17:00
+08-13 16:15
 深圳市福田区中心四路1号嘉里建设广场第一座21层</t>
     </r>
   </si>
@@ -441,6 +441,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">复临科技（一面）
 </t>
     </r>
@@ -448,6 +455,7 @@
       <rPr>
         <sz val="9"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>8-16 19:00</t>
@@ -484,11 +492,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,13 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -562,7 +563,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,8 +600,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,53 +668,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,20 +676,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -668,20 +684,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -691,15 +693,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,24 +733,17 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,19 +764,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,49 +908,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,109 +932,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,24 +961,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1006,6 +976,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1017,6 +996,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,170 +1049,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1243,9 +1231,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1572,7 +1557,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
@@ -1602,7 +1587,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1642,7 +1627,7 @@
       <c r="E3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1669,7 +1654,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e16ad21c-3b9a-4a21-9187-a1902a506fa0}</x14:id>
+          <x14:id>{83c95398-aa90-42cc-910f-6b22bbf632e8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1681,7 +1666,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e16ad21c-3b9a-4a21-9187-a1902a506fa0}">
+          <x14:cfRule type="dataBar" id="{83c95398-aa90-42cc-910f-6b22bbf632e8}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -359,6 +359,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">店匠科技（一面）
 </t>
     </r>
@@ -440,6 +447,32 @@
     <t>08.16-08.22</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">法大大（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-16 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -491,9 +524,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -547,6 +580,188 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
@@ -555,188 +770,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -770,19 +803,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,151 +971,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,30 +990,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,10 +1035,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1049,151 +1056,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1226,7 +1259,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1557,7 +1590,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
@@ -1654,7 +1687,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83c95398-aa90-42cc-910f-6b22bbf632e8}</x14:id>
+          <x14:id>{960c6442-8139-4320-82d0-b7028bf533e5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1666,7 +1699,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83c95398-aa90-42cc-910f-6b22bbf632e8}">
+          <x14:cfRule type="dataBar" id="{960c6442-8139-4320-82d0-b7028bf533e5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>日期</t>
   </si>
@@ -448,6 +448,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">法大大（一面）
 </t>
     </r>
@@ -492,6 +499,73 @@
         <charset val="134"/>
       </rPr>
       <t>8-16 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">前海联动云（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-17 14:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+思为科技（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-17 10:00</t>
+    </r>
+  </si>
+  <si>
+    <t>富途科技（一面）
+8-18  19:00</t>
+  </si>
+  <si>
+    <r>
+      <t>斯坦德机器人（一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-18 19:00</t>
     </r>
   </si>
   <si>
@@ -524,12 +598,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,22 +654,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,10 +706,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,33 +723,18 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -663,16 +746,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -688,44 +808,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,19 +844,45 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -809,13 +917,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,151 +1067,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,11 +1093,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,24 +1158,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1059,178 +1175,170 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1260,6 +1368,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1590,7 +1701,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
@@ -1620,7 +1731,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1640,7 +1751,7 @@
       <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1664,17 +1775,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1807,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{960c6442-8139-4320-82d0-b7028bf533e5}</x14:id>
+          <x14:id>{398fb367-dd98-4dc1-8e65-4c144bb7ada6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1699,7 +1819,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{960c6442-8139-4320-82d0-b7028bf533e5}">
+          <x14:cfRule type="dataBar" id="{398fb367-dd98-4dc1-8e65-4c144bb7ada6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1733,19 +1853,19 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
@@ -1753,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
@@ -1761,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B61B0A-1AE0-4DF9-B26B-4D6BEEE42729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>日期</t>
   </si>
@@ -94,57 +100,6 @@
       <t xml:space="preserve">08-03 19:00
 使用Zoom视频软件
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平安产险（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-04 18:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-记得提前完成测试题，打开HR-X-APP</t>
     </r>
   </si>
   <si>
@@ -214,81 +169,6 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">惠择保险（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">08-10 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-深信服（二面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>08-10 19:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">卫宁健康（一面）
 </t>
     </r>
@@ -502,52 +382,34 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">前海联动云（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-17 14:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-思为科技（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-17 10:00</t>
-    </r>
-  </si>
-  <si>
     <t>富途科技（一面）
 8-18  19:00</t>
   </si>
   <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
     <r>
       <t>斯坦德机器人（一</t>
     </r>
@@ -555,6 +417,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">）
@@ -563,47 +426,193 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
       <t>8-18 19:00</t>
     </r>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+思为科技（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-17 10:00</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>惠择保险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">08-10 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+深信服（二面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08-10 19:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平安产险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-04 18:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+记得提前完成测试题，打开HR-X-APP</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,151 +674,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -850,7 +715,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -862,29 +726,50 @@
       <color rgb="FFC00000"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0070C0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,188 +788,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1092,253 +797,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1376,65 +842,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1692,21 +1121,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1741,63 +1170,64 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="7" t="s">
+    <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:1">
-      <c r="A5" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1807,19 +1237,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{398fb367-dd98-4dc1-8e65-4c144bb7ada6}</x14:id>
+          <x14:id>{398FB367-DD98-4DC1-8E65-4C144BB7ADA6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{398fb367-dd98-4dc1-8e65-4c144bb7ada6}">
+          <x14:cfRule type="dataBar" id="{398FB367-DD98-4DC1-8E65-4C144BB7ADA6}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1838,54 +1267,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="21" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B61B0A-1AE0-4DF9-B26B-4D6BEEE42729}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94906994-D9B8-4B34-B01A-FA235D3889C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1170" windowWidth="19455" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,6 @@
     </r>
   </si>
   <si>
-    <t>富途科技（一面）
-8-18  19:00</t>
-  </si>
-  <si>
     <t>08.23-08.29</t>
   </si>
   <si>
@@ -411,6 +407,147 @@
   </si>
   <si>
     <r>
+      <t>惠择保险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">08-10 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+深信服（二面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08-10 19:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平安产险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-04 18:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+记得提前完成测试题，打开HR-X-APP</t>
+    </r>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>斯坦德机器人（一</t>
     </r>
     <r>
@@ -425,21 +562,59 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-18 19:00</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-19 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">卫宁健康（三面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-17  14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前海联动云（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-17 15:30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -462,148 +637,68 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>8-17 10:00</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>惠择保险（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
+      <t>8-17 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">08-10 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-深信服（二面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>08-10 19:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平安产险（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-04 18:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-记得提前完成测试题，打开HR-X-APP</t>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">有赞（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8-18  14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+富途科技（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8-18  19:30</t>
     </r>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -612,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,11 +829,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
@@ -763,6 +853,37 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -804,7 +925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,20 +957,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1130,7 +1254,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1160,7 +1284,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1177,10 +1301,10 @@
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1191,8 +1315,8 @@
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>32</v>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>16</v>
@@ -1204,26 +1328,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1281,19 +1405,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1301,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,11 +1433,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94906994-D9B8-4B34-B01A-FA235D3889C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E32EF0-4B7C-415D-B12F-09E61280C68D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1170" windowWidth="19455" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="390" windowWidth="19455" windowHeight="13890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -57,6 +57,555 @@
   </si>
   <si>
     <t>08.02-08.08</t>
+  </si>
+  <si>
+    <t>08.09-08.15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>外资企业（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-09 18:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">店匠科技（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08-13 10:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">深圳市南山区高新南区科苑南路3176号彩讯科创中心30层
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+佳兆业（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-13 14:00
+深圳南山区飞亚达科技大厦（科技南十二路）整层8001
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>景顺（一面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+08-13 16:15
+深圳市福田区中心四路1号嘉里建设广场第一座21层</t>
+    </r>
+  </si>
+  <si>
+    <t>08.16-08.22</t>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平安产险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+08-04 18:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+记得提前完成测试题，打开HR-X-APP</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>斯坦德机器人（一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-19 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">有赞（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8-18  14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+富途科技（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8-18  19:30</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">法大大（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-16 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">复临科技（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-16 19:00</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺丰快运科技（一面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）
+8-20 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">卫宁健康（三面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-17  14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前海联动云（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-17 15:30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+思为科技（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-17 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:00</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前海联动云（二面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8-24 10:30</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>惠择保险（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">08-10 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+深信服（二面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>08-10 19:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -101,6 +650,7 @@
 使用Zoom视频软件
 </t>
     </r>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -124,20 +674,18 @@
 08-05 19:00
 牛客网在线面试</t>
     </r>
-  </si>
-  <si>
-    <t>08.09-08.15</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>外资企业（一面）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字节跳动（一面）</t>
     </r>
     <r>
       <rPr>
@@ -145,6 +693,7 @@
         <sz val="10"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挂</t>
@@ -157,18 +706,12 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-08-09 18:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
+08-12 20:00
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">卫宁健康（一面）
 </t>
     </r>
@@ -205,6 +748,28 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挂</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -213,501 +778,14 @@
       <t xml:space="preserve">
 08-11 18:15</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字节跳动（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-12 20:00
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">店匠科技（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>08-13 10:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">深圳市南山区高新南区科苑南路3176号彩讯科创中心30层
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-佳兆业（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-13 14:00
-深圳南山区飞亚达科技大厦（科技南十二路）整层8001
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>景顺（一面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-08-13 16:15
-深圳市福田区中心四路1号嘉里建设广场第一座21层</t>
-    </r>
-  </si>
-  <si>
-    <t>08.16-08.22</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">法大大（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-16 10:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">复临科技（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-16 19:00</t>
-    </r>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <r>
-      <t>惠择保险（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">08-10 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-深信服（二面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>08-10 19:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平安产险（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-08-04 18:30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>挂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-记得提前完成测试题，打开HR-X-APP</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>斯坦德机器人（一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-19 19:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">卫宁健康（三面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-17  14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前海联动云（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-17 15:30</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-思为科技（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-17 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">有赞（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">8-18  14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-富途科技（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8-18  19:30</t>
-    </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,13 +813,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -885,6 +956,30 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -921,11 +1016,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -951,29 +1046,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1254,7 +1352,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1284,7 +1382,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1299,59 +1397,66 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>31</v>
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1405,19 +1510,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1425,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1433,11 +1538,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CE415A-A10A-40F7-9B4A-5DE28D758033}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3EA0C8-129C-4114-BF4B-6C1A850C3978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>日期</t>
   </si>
@@ -555,60 +555,6 @@
   </si>
   <si>
     <r>
-      <t>前海联动云（二面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-24 10:30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百果园（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-24 15:00</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">海康威视（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8-25 10:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="9"/>
@@ -874,6 +820,148 @@
         <charset val="134"/>
       </rPr>
       <t>8-16 19:00</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>货拉拉国际事业部（一面，视频）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8-26 14:00</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>前海联动云（二面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-24 10:30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百果园（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-24 15:00</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">海康威视（一面，现场）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8-25 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智影医疗（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Lobby（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 19:00</t>
     </r>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -882,7 +970,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1061,6 +1149,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1098,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1155,6 +1251,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1435,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1504,10 +1603,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
@@ -1515,7 +1614,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>20</v>
@@ -1527,22 +1626,25 @@
         <v>22</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3EA0C8-129C-4114-BF4B-6C1A850C3978}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>日期</t>
   </si>
@@ -213,13 +207,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>惠择保险（一面）</t>
     </r>
     <r>
@@ -267,6 +254,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
@@ -379,220 +367,6 @@
       <t xml:space="preserve">
 08-11 18:15</t>
     </r>
-  </si>
-  <si>
-    <t>08.16-08.22</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前海联动云（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-17 15:30</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-思为科技（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-17 19:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">卫宁健康（三面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-18  10:00</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-有赞（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-18  14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-富途科技（一面）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-18  19:30</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>斯坦德机器人（一</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-19 19:00</t>
-    </r>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>顺丰快运科技（一面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-8-20 19:00</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">普渡科技
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8-21 10:00</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -626,7 +400,6 @@
 08-12 20:00
 </t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -645,7 +418,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挂</t>
@@ -736,6 +508,9 @@
     </r>
   </si>
   <si>
+    <t>08.16-08.22</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -752,7 +527,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挂</t>
@@ -796,7 +570,6 @@
         <sz val="9"/>
         <color rgb="FF0070C0"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>挂</t>
@@ -821,18 +594,348 @@
       </rPr>
       <t>8-16 19:00</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前海联动云（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-17 15:30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+思为科技（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-17 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">卫宁健康（三面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-18  10:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+有赞（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-18  14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+富途科技（一面）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-18  19:30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>斯坦德机器人（一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-19 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">电话面试
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-20 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+顺丰快运科技（一面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+8-20 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">普渡科技
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-21 10:00</t>
+    </r>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <r>
+      <t>前海联动云（二面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-24 10:30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百果园（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-24 15:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质视科技（一面，电话）
+8-24 18:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">海康威视（一面，现场）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-25 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智影医疗（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lobby（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>货拉拉国际事业部（一面，视频）</t>
     </r>
@@ -842,135 +945,53 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
       </rPr>
       <t>8-26 14:00</t>
     </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>前海联动云（二面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-24 10:30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百果园（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-24 15:00</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">海康威视（一面，现场）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">8-25 10:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>智影医疗（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-8-25 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Lobby（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-8-25 19:00</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1000,12 +1021,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
@@ -1020,17 +1035,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,6 +1068,157 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1062,6 +1243,7 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
@@ -1086,6 +1268,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -1099,67 +1287,19 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1178,8 +1318,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1187,14 +1513,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,7 +1786,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1229,46 +1794,83 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1526,21 +2128,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1565,7 +2167,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1575,80 +2177,79 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="111" customHeight="1" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>35</v>
+        <v>21</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="144.75" customHeight="1" spans="1:5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1658,18 +2259,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{02ABA0A7-984E-4948-A5E2-AABB34439BC3}</x14:id>
+          <x14:id>{0a0e85d3-8b01-493a-9482-e8f4ee501978}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{02ABA0A7-984E-4948-A5E2-AABB34439BC3}">
+          <x14:cfRule type="dataBar" id="{0a0e85d3-8b01-493a-9482-e8f4ee501978}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1688,53 +2290,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44CFB5E-21E1-460C-ADF8-027743A0F308}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="480" yWindow="0" windowWidth="19455" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>日期</t>
   </si>
@@ -756,7 +762,220 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">电话面试
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">普渡科技
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-21 10:00</t>
+    </r>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">海康威视（一面，现场）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-25 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智影医疗（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lobby（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 19:00</t>
+    </r>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <r>
+      <t>前海联动云（二面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-24 10:30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+斯坦德机器人（二面，现场）
+8-24 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质视科技（一面，电话）
+8-24 18:00</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>卓望公司（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11：00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>百果园（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+18：40</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">行云（一面，电话）
 </t>
     </r>
     <r>
@@ -790,154 +1009,41 @@
       <t>）
 8-20 19:00</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">普渡科技
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-21 10:00</t>
-    </r>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <r>
-      <t>前海联动云（二面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-24 10:30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百果园（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-24 15:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质视科技（一面，电话）
-8-24 18:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">海康威视（一面，现场）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-25 10:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>智影医疗（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-25 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Lobby（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-25 19:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>货拉拉国际事业部（一面，视频）</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">苹果树（一面，视频）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-26 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+货拉拉国际事业部（一面，视频）</t>
     </r>
     <r>
       <rPr>
@@ -960,38 +1066,28 @@
     </r>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
+    <r>
+      <t xml:space="preserve">腾讯音乐（一面，电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8-22 10：00</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="43">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,157 +1167,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
@@ -1243,13 +1188,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF0070C0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1280,26 +1218,50 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,194 +1280,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1513,253 +1289,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1794,9 +1331,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1809,68 +1343,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2128,21 +1628,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2167,7 +1667,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -2177,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2187,11 +1687,11 @@
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2207,11 +1707,11 @@
       <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="111" customHeight="1" spans="1:7">
+    <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2227,29 +1727,35 @@
       <c r="E4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" ht="144.75" customHeight="1" spans="1:5">
-      <c r="A5" t="s">
+      <c r="B5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>31</v>
+      <c r="E5" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -2259,19 +1765,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0a0e85d3-8b01-493a-9482-e8f4ee501978}</x14:id>
+          <x14:id>{0A0E85D3-8B01-493A-9482-E8F4EE501978}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0a0e85d3-8b01-493a-9482-e8f4ee501978}">
+          <x14:cfRule type="dataBar" id="{0A0E85D3-8B01-493A-9482-E8F4EE501978}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2290,54 +1795,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44CFB5E-21E1-460C-ADF8-027743A0F308}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="19455" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -213,6 +207,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>惠择保险（一面）</t>
     </r>
     <r>
@@ -769,17 +770,123 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">普渡科技
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-21 10:00</t>
+      <t xml:space="preserve">行云（一面，电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-20 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+顺丰快运科技（一面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）
+8-20 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>普渡科技</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> offer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-21 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平安惠普</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> offer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">腾讯音乐（一面，电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-22 10：00</t>
     </r>
   </si>
   <si>
@@ -794,84 +901,49 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">海康威视（一面，现场）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-25 10:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>智影医疗（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-25 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Lobby（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-25 19:00</t>
-    </r>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
-  </si>
-  <si>
-    <r>
+      <t>卓望公司（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+11：00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百果园（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+18：40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>前海联动云（二面，现场）</t>
     </r>
     <r>
@@ -912,104 +984,95 @@
       <rPr>
         <b/>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
+        <color theme="2"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
       <t>质视科技（一面，电话）
 8-24 18:00</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>卓望公司（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-11：00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>百果园（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-18：40</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">行云（一面，电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-20 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-顺丰快运科技（一面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）
-8-20 19:00</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">海康威视（一面，现场）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-25 10:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智影医疗（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 14:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lobby（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 19:00</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1028,7 +1091,6 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">8-26 10:00
@@ -1066,28 +1128,38 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">腾讯音乐（一面，电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8-22 10：00</t>
-    </r>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,39 +1203,175 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1218,50 +1426,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="2"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1280,8 +1479,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1289,14 +1668,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,55 +1940,83 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1628,21 +2274,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +2313,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1677,7 +2323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1691,7 +2337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1707,11 +2353,11 @@
       <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="111" customHeight="1" spans="1:8">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1727,35 +2373,34 @@
       <c r="E4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>40</v>
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="144.75" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>37</v>
+        <v>29</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1765,18 +2410,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0A0E85D3-8B01-493A-9482-E8F4EE501978}</x14:id>
+          <x14:id>{5b99561a-e7ae-4f31-a265-f99b65937b93}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0A0E85D3-8B01-493A-9482-E8F4EE501978}">
+          <x14:cfRule type="dataBar" id="{5b99561a-e7ae-4f31-a265-f99b65937b93}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1795,53 +2441,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="20" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -604,12 +604,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -643,6 +637,16 @@
       </rPr>
       <t xml:space="preserve">
 思为科技（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offer</t>
     </r>
     <r>
       <rPr>
@@ -807,6 +811,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>普渡科技</t>
     </r>
     <r>
@@ -814,6 +825,7 @@
         <b/>
         <sz val="9"/>
         <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> offer</t>
@@ -852,6 +864,7 @@
       <rPr>
         <sz val="9"/>
         <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> offer
@@ -894,24 +907,26 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>卓望公司（一面）</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-11：00
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+11：00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -994,79 +1009,72 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">海康威视（一面，现场）
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color theme="2"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">海康威视（一面，现场）
-</t>
-    </r>
-    <r>
-      <rPr>
+      <t>8-25 10:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color theme="2"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>8-25 10:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>智影医疗（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
         <color theme="2"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t>智影医疗（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">
+8-25 14:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="9"/>
         <color theme="2"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">
-8-25 14:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t>Lobby（一面，现场）</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color theme="2"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
@@ -1154,10 +1162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="42">
     <font>
@@ -1225,13 +1233,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1253,20 +1254,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1275,6 +1262,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1283,27 +1316,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1316,66 +1384,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
@@ -1409,6 +1417,13 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FFC00000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1429,23 +1444,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF00B050"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1493,49 +1499,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,115 +1619,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,15 +1672,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1711,17 +1708,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,165 +1758,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1948,9 +1954,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2283,7 +2286,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
@@ -2313,7 +2316,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -2333,7 +2336,7 @@
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2393,7 +2396,7 @@
       <c r="C5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="8" t="s">
@@ -2410,7 +2413,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5b99561a-e7ae-4f31-a265-f99b65937b93}</x14:id>
+          <x14:id>{9c35eec4-384b-452b-b782-5c68e1aeaace}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2422,7 +2425,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5b99561a-e7ae-4f31-a265-f99b65937b93}">
+          <x14:cfRule type="dataBar" id="{9c35eec4-384b-452b-b782-5c68e1aeaace}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5382A18A-17CE-40EC-9AEF-83F742EF8AE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13460"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>日期</t>
   </si>
@@ -604,72 +610,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前海联动云（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-17 15:30</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-思为科技（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>offer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-17 19:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="9"/>
@@ -818,6 +758,275 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">腾讯音乐（一面，电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-22 10：00</t>
+    </r>
+  </si>
+  <si>
+    <t>08.23-08.29</t>
+  </si>
+  <si>
+    <r>
+      <t>卓望公司（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+11：00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百果园（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+18：40</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前海联动云（二面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-24 10:30
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+斯坦德机器人（二面，现场）
+8-24 14:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质视科技（一面，电话）
+8-24 18:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">海康威视（一面，现场）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-25 10:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>智影医疗（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 14:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Lobby（一面，现场）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-25 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">苹果树（一面，视频）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-26 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+货拉拉国际事业部（一面，视频）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-26 14:00</t>
+    </r>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>百分比</t>
+  </si>
+  <si>
+    <t>详情分析</t>
+  </si>
+  <si>
+    <t>平安产险</t>
+  </si>
+  <si>
+    <t>OPPO</t>
+  </si>
+  <si>
+    <r>
       <t>普渡科技</t>
     </r>
     <r>
@@ -853,9 +1062,11 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>平安惠普</t>
@@ -867,7 +1078,27 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> offer
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -882,292 +1113,77 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">腾讯音乐（一面，电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-22 10：00</t>
-    </r>
-  </si>
-  <si>
-    <t>08.23-08.29</t>
-  </si>
-  <si>
-    <r>
-      <t>卓望公司（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="2"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-11：00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>百果园（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-18：40</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前海联动云（二面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-24 10:30
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-斯坦德机器人（二面，现场）
-8-24 14:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="2"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质视科技（一面，电话）
-8-24 18:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">海康威视（一面，现场）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="2"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-25 10:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="2"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>智影医疗（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="2"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-25 14:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="2"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Lobby（一面，现场）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="2"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-25 19:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">苹果树（一面，视频）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-26 10:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-货拉拉国际事业部（一面，视频）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-26 14:00</t>
-    </r>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>进度</t>
-  </si>
-  <si>
-    <t>百分比</t>
-  </si>
-  <si>
-    <t>详情分析</t>
-  </si>
-  <si>
-    <t>平安产险</t>
-  </si>
-  <si>
-    <t>OPPO</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前海联动云（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-17 15:30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+思为科技（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-17 19:00</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="42">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1235,151 +1251,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1412,13 +1284,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF00B050"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1465,8 +1330,52 @@
       <name val="等线"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1485,188 +1394,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1674,253 +1403,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1949,9 +1439,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1961,65 +1448,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2277,21 +1727,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2316,7 +1766,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -2326,7 +1776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -2336,11 +1786,11 @@
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2360,50 +1810,51 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="111" customHeight="1" spans="1:8">
+    <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" ht="144.75" customHeight="1" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -2413,19 +1864,18 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9c35eec4-384b-452b-b782-5c68e1aeaace}</x14:id>
+          <x14:id>{9C35EEC4-384B-452B-B782-5C68E1AEAACE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9c35eec4-384b-452b-b782-5c68e1aeaace}">
+          <x14:cfRule type="dataBar" id="{9C35EEC4-384B-452B-B782-5C68E1AEAACE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2444,54 +1894,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:2">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
+    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="27" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/前端面试准备/面试排期.xlsx
+++ b/docs/前端面试准备/面试排期.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\project\study\Document\docs\前端面试准备\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5382A18A-17CE-40EC-9AEF-83F742EF8AE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27980" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="排期" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -610,6 +604,72 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前海联动云（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+8-17 15:30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+思为科技（一面）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-17 19:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="9"/>
@@ -758,6 +818,97 @@
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
+      <t>普渡科技</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> offer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">8-21 10:00
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平安惠普</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-22</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">腾讯音乐（一面，电话）
 </t>
     </r>
@@ -776,6 +927,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>卓望公司（一面）</t>
     </r>
     <r>
@@ -878,6 +1036,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">海康威视（一面，现场）
 </t>
     </r>
@@ -953,24 +1118,26 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">苹果树（一面，视频）
 </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-26 10:00
+        <color theme="2"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8-26 10:00</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -986,6 +1153,16 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offer</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -1024,166 +1201,19 @@
   </si>
   <si>
     <t>OPPO</t>
-  </si>
-  <si>
-    <r>
-      <t>普渡科技</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> offer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">8-21 10:00
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>平安惠普</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>offer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-22</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>前海联动云（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-8-17 15:30</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-思为科技（一面）</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>offer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFC00000"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8-17 19:00</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,10 +1278,161 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1277,6 +1458,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -1289,7 +1476,19 @@
     <font>
       <b/>
       <sz val="9"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <color rgb="FFC00000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -1319,37 +1518,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="2"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <color theme="2"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1357,25 +1535,16 @@
       <sz val="9"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1394,8 +1563,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1403,14 +1758,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1439,6 +2033,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1448,28 +2045,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1727,21 +2367,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="69.75" customHeight="1" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1766,7 +2406,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -1776,7 +2416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1786,11 +2426,11 @@
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1810,51 +2450,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="111" customHeight="1" spans="1:8">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>24</v>
       </c>
+      <c r="E4" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="10" t="s">
         <v>26</v>
       </c>
+      <c r="G4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="144.75" customHeight="1" spans="1:5">
       <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="C5" s="11" t="s">
         <v>31</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
   <conditionalFormatting sqref="I1">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -1864,18 +2503,19 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9C35EEC4-384B-452B-B782-5C68E1AEAACE}</x14:id>
+          <x14:id>{8859a6c7-f967-46b3-9099-51c12639ac17}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9C35EEC4-384B-452B-B782-5C68E1AEAACE}">
+          <x14:cfRule type="dataBar" id="{8859a6c7-f967-46b3-9099-51c12639ac17}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1894,53 +2534,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="30.75" customHeight="1" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="16384" width="17.75" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="27" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>